--- a/generate_config_xml.xlsx
+++ b/generate_config_xml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workdata\ps\powershell_3scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DD4DD-86E1-47C7-B6F1-ADAC4680CBAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79292F4-1D3B-4262-A839-536A08046C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,11 +29,17 @@
   <connection id="1" xr16:uid="{C589D5F7-C716-4A84-9F4E-B0E3BB05C492}" name="config" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\workdata\ps\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" xr16:uid="{37AC69A3-44B2-4CDE-B8A8-6D16658DE61F}" name="config1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\workdata\ps\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{66E43AF0-F673-4A47-9B56-903CACD30E50}" name="config2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\workdata\ps\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>verb</t>
   </si>
@@ -62,9 +68,6 @@
     <t>path_service_create</t>
   </si>
   <si>
-    <t>Paths</t>
-  </si>
-  <si>
     <t>path_metric_list</t>
   </si>
   <si>
@@ -105,6 +108,15 @@
   </si>
   <si>
     <t>ggg</t>
+  </si>
+  <si>
+    <t>path_service_list</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -182,24 +194,28 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="config">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" nillable="true" type="xsd:anyURI" name="base_url" form="unqualified"/>
             <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="access_token" form="unqualified"/>
+            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="service_name" form="unqualified"/>
             <xsd:element minOccurs="0" nillable="true" name="paths" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="path_method_create" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="path_mapping_rule_create" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="path_metric_list" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="path_service_create" form="unqualified"/>
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="path" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="url" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
-            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="service_name" form="unqualified"/>
             <xsd:element minOccurs="0" nillable="true" name="rules" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
@@ -220,65 +236,60 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="config_Map" RootElement="config" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="2" Name="config_Map" RootElement="config" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A92768B-027E-4DF2-9C94-B8CD2FC505CF}" name="Table1" displayName="Table1" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C3" xr:uid="{B897773E-C79D-4534-A789-767FA481F3CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F4AC1D6-0B04-4938-AF65-5A681CA521FE}" name="Table3" displayName="Table3" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="A1:C3" xr:uid="{D5B6DBD2-BE74-4858-9A33-28CE3155FDBA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2EBB963-42E6-46C5-8737-C618F617C99E}" uniqueName="verb" name="verb">
-      <xmlColumnPr mapId="1" xpath="/config/rules/rule/verb" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{87EC1880-F179-4FF0-BC77-32AFB0289C98}" uniqueName="verb" name="verb">
+      <xmlColumnPr mapId="2" xpath="/config/rules/rule/verb" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9BAFAB9C-2409-4038-921B-5786D9ED8A62}" uniqueName="method" name="method">
-      <xmlColumnPr mapId="1" xpath="/config/rules/rule/method" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{B58DC894-6443-4E61-9740-4929627C73D7}" uniqueName="method" name="method">
+      <xmlColumnPr mapId="2" xpath="/config/rules/rule/method" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{29FE8E47-980E-4F03-AD9E-F2D2EC2CA2BA}" uniqueName="pattern" name="pattern">
-      <xmlColumnPr mapId="1" xpath="/config/rules/rule/pattern" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{8A31BC82-3A3A-4BEF-8692-B9FA532D49E9}" uniqueName="pattern" name="pattern">
+      <xmlColumnPr mapId="2" xpath="/config/rules/rule/pattern" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{879DB290-361E-4042-AC1C-F3C23C449B4F}" name="Table4" displayName="Table4" ref="E1:F6" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="E1:F6" xr:uid="{A6054A28-529B-42CB-83FB-1B3DDD127982}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FE3E73D5-47F3-49E0-926C-B63B7748BDF2}" uniqueName="name" name="name">
+      <xmlColumnPr mapId="2" xpath="/config/paths/path/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{3D2E7D6E-70EA-40BB-B0FE-DEE8EDD69B41}" uniqueName="url" name="url">
+      <xmlColumnPr mapId="2" xpath="/config/paths/path/url" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="xr xr3 xr6">
-  <singleXmlCell id="17" xr6:uid="{F1C61945-2ACB-4FDC-8970-A1BFEC9332CA}" r="G3" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{79CBE099-5066-4B24-8396-B95B706FE022}" uniqueName="base_url">
-      <xmlPr mapId="1" xpath="/config/base_url" xmlDataType="anyURI"/>
+  <singleXmlCell id="8" xr6:uid="{01E8C26E-3D84-4F02-B6A9-6815216E3AB0}" r="H2" connectionId="3">
+    <xmlCellPr id="1" xr6:uid="{CEB7283C-62D4-4DF8-A210-041E58F3EFFC}" uniqueName="base_url">
+      <xmlPr mapId="2" xpath="/config/base_url" xmlDataType="anyURI"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="18" xr6:uid="{2B2E573B-CFAF-42EE-A4E3-CC9E2FC4AA6C}" r="G4" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{DED376E8-C96A-43D9-84AA-A6DE06DC1963}" uniqueName="access_token">
-      <xmlPr mapId="1" xpath="/config/access_token" xmlDataType="string"/>
+  <singleXmlCell id="9" xr6:uid="{E53CC71C-9AB2-41BA-866A-40B3A7F5D544}" r="I2" connectionId="3">
+    <xmlCellPr id="1" xr6:uid="{8CF40D59-0419-4FF3-A2A4-8141D62B79C5}" uniqueName="access_token">
+      <xmlPr mapId="2" xpath="/config/access_token" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="22" xr6:uid="{18ACAD9E-FDE4-487C-8B23-BA8FBE47924E}" r="G6" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{BF42D673-7B6D-4DF8-944A-547934549392}" uniqueName="path_method_create">
-      <xmlPr mapId="1" xpath="/config/paths/path_method_create" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="23" xr6:uid="{EC8FAA18-436B-4478-89E4-9D7A9E922C33}" r="G7" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{3A9B0A70-9C25-4A94-919F-FB58260AA372}" uniqueName="path_mapping_rule_create">
-      <xmlPr mapId="1" xpath="/config/paths/path_mapping_rule_create" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="24" xr6:uid="{F76CB450-15E2-408F-AF93-2B74D6A4015D}" r="G8" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{1D414179-83BE-4724-A5F9-3388D663FEE6}" uniqueName="path_metric_list">
-      <xmlPr mapId="1" xpath="/config/paths/path_metric_list" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="25" xr6:uid="{A3DAE934-0F9D-4BEE-BC92-C2594E7B65E3}" r="G1" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{96716007-D2AB-4198-AB21-733418FC86F2}" uniqueName="service_name">
-      <xmlPr mapId="1" xpath="/config/service_name" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="26" xr6:uid="{06E741D4-B975-4BB6-9578-A14EEA1B592D}" r="G9" connectionId="1">
-    <xmlCellPr id="1" xr6:uid="{06DF0A40-DD0F-4EF4-A15D-0EEA1D244D67}" uniqueName="path_service_create">
-      <xmlPr mapId="1" xpath="/config/paths/path_service_create" xmlDataType="string"/>
+  <singleXmlCell id="10" xr6:uid="{8A10BC31-1DAA-4FFC-A12F-DD744F733ADA}" r="J2" connectionId="3">
+    <xmlCellPr id="1" xr6:uid="{E8280AB8-2BF5-4D28-A5E8-64EF0C3DD11D}" uniqueName="service_name">
+      <xmlPr mapId="2" xpath="/config/service_name" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -548,10 +559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,11 +570,15 @@
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,94 +588,98 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{57A871DA-0E79-4075-8DA9-9088EC8E5FE9}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{473E9FB4-E1F2-4861-9669-97FD451557F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/generate_config_xml.xlsx
+++ b/generate_config_xml.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workdata\ps\powershell_3scale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workdata\ps\ps1\powershell_3scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79292F4-1D3B-4262-A839-536A08046C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C1F212-B804-4183-9AFD-6526B80CB9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,11 +35,14 @@
   <connection id="3" xr16:uid="{66E43AF0-F673-4A47-9B56-903CACD30E50}" name="config2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\workdata\ps\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="4" xr16:uid="{BC1DD249-1BA3-4977-9EDE-B0D2699A214C}" name="config3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\workdata\ps\ps1\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>verb</t>
   </si>
@@ -65,9 +68,6 @@
     <t>path_mapping_rule_create</t>
   </si>
   <si>
-    <t>path_service_create</t>
-  </si>
-  <si>
     <t>path_metric_list</t>
   </si>
   <si>
@@ -98,15 +98,6 @@
     <t>/gfdg</t>
   </si>
   <si>
-    <t>https://xxxxx.com</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
     <t>ggg</t>
   </si>
   <si>
@@ -117,6 +108,42 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>application_plan_name</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>https://xxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>appplan-xxx-xxx</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>path_mapping_rules_list</t>
+  </si>
+  <si>
+    <t>path_application_plan</t>
+  </si>
+  <si>
+    <t>path_limit_create</t>
+  </si>
+  <si>
+    <t>/admin/api/services/{service_id}/application_plans.xml</t>
+  </si>
+  <si>
+    <t>/admin/api/application_plans/{application_plan_id}/metrics/{metric_id}/limits.xml</t>
   </si>
 </sst>
 </file>
@@ -169,17 +196,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,7 +226,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="config">
         <xsd:complexType>
@@ -202,6 +234,7 @@
             <xsd:element minOccurs="0" nillable="true" type="xsd:anyURI" name="base_url" form="unqualified"/>
             <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="access_token" form="unqualified"/>
             <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="service_name" form="unqualified"/>
+            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="application_plan_name" form="unqualified"/>
             <xsd:element minOccurs="0" nillable="true" name="paths" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
@@ -231,29 +264,36 @@
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="limits" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" type="xsd:string" name="limit" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
           </xsd:sequence>
         </xsd:complexType>
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="config_Map" RootElement="config" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="config_Map" RootElement="config" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F4AC1D6-0B04-4938-AF65-5A681CA521FE}" name="Table3" displayName="Table3" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F4AC1D6-0B04-4938-AF65-5A681CA521FE}" name="Table3" displayName="Table3" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="4">
   <autoFilter ref="A1:C3" xr:uid="{D5B6DBD2-BE74-4858-9A33-28CE3155FDBA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{87EC1880-F179-4FF0-BC77-32AFB0289C98}" uniqueName="verb" name="verb">
-      <xmlColumnPr mapId="2" xpath="/config/rules/rule/verb" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/config/rules/rule/verb" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{B58DC894-6443-4E61-9740-4929627C73D7}" uniqueName="method" name="method">
-      <xmlColumnPr mapId="2" xpath="/config/rules/rule/method" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/config/rules/rule/method" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8A31BC82-3A3A-4BEF-8692-B9FA532D49E9}" uniqueName="pattern" name="pattern">
-      <xmlColumnPr mapId="2" xpath="/config/rules/rule/pattern" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/config/rules/rule/pattern" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -261,35 +301,52 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{879DB290-361E-4042-AC1C-F3C23C449B4F}" name="Table4" displayName="Table4" ref="E1:F6" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="E1:F6" xr:uid="{A6054A28-529B-42CB-83FB-1B3DDD127982}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FE3E73D5-47F3-49E0-926C-B63B7748BDF2}" uniqueName="name" name="name">
-      <xmlColumnPr mapId="2" xpath="/config/paths/path/name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D2E7D6E-70EA-40BB-B0FE-DEE8EDD69B41}" uniqueName="url" name="url">
-      <xmlColumnPr mapId="2" xpath="/config/paths/path/url" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{467BF087-17A7-4307-9F6B-02ED4D01E400}" name="Table12" displayName="Table12" ref="E1:E3" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="E1:E3" xr:uid="{B1091324-7084-44EF-8A5E-AB35CE51F51F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{501AE67A-F2A5-4278-A7DB-BA95A76F3D1B}" uniqueName="limit" name="limit" dataDxfId="0">
+      <xmlColumnPr mapId="3" xpath="/config/limits/limit" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2E022988-5777-4B0A-9E39-C035D8372F75}" name="Table13" displayName="Table13" ref="J1:K8" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="J1:K8" xr:uid="{A9FFF4C1-A25E-43AB-A34A-097369C86842}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B26DCEA9-6BDC-4DEF-9AE6-C1FB11271852}" uniqueName="name" name="name">
+      <xmlColumnPr mapId="3" xpath="/config/paths/path/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{39487388-80C4-4F6A-AA26-5CC87AED044B}" uniqueName="url" name="url">
+      <xmlColumnPr mapId="3" xpath="/config/paths/path/url" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="xr xr3 xr6">
-  <singleXmlCell id="8" xr6:uid="{01E8C26E-3D84-4F02-B6A9-6815216E3AB0}" r="H2" connectionId="3">
-    <xmlCellPr id="1" xr6:uid="{CEB7283C-62D4-4DF8-A210-041E58F3EFFC}" uniqueName="base_url">
-      <xmlPr mapId="2" xpath="/config/base_url" xmlDataType="anyURI"/>
+  <singleXmlCell id="8" xr6:uid="{679737EC-C870-4FAD-86E7-15BAE669B5D8}" r="H1" connectionId="4">
+    <xmlCellPr id="1" xr6:uid="{F61E1B35-4131-4E61-9A85-2EC8A2A9CC36}" uniqueName="base_url">
+      <xmlPr mapId="3" xpath="/config/base_url" xmlDataType="anyURI"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="9" xr6:uid="{E53CC71C-9AB2-41BA-866A-40B3A7F5D544}" r="I2" connectionId="3">
-    <xmlCellPr id="1" xr6:uid="{8CF40D59-0419-4FF3-A2A4-8141D62B79C5}" uniqueName="access_token">
-      <xmlPr mapId="2" xpath="/config/access_token" xmlDataType="string"/>
+  <singleXmlCell id="9" xr6:uid="{77D87A6B-C9CD-4F8D-AF22-B6AC30C408AF}" r="H2" connectionId="4">
+    <xmlCellPr id="1" xr6:uid="{219174C2-D9F6-4FA5-A161-84F2FC186F8D}" uniqueName="access_token">
+      <xmlPr mapId="3" xpath="/config/access_token" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="10" xr6:uid="{8A10BC31-1DAA-4FFC-A12F-DD744F733ADA}" r="J2" connectionId="3">
-    <xmlCellPr id="1" xr6:uid="{E8280AB8-2BF5-4D28-A5E8-64EF0C3DD11D}" uniqueName="service_name">
-      <xmlPr mapId="2" xpath="/config/service_name" xmlDataType="string"/>
+  <singleXmlCell id="10" xr6:uid="{1F4794B3-277E-4AB4-8DE7-A5635B55DD93}" r="H3" connectionId="4">
+    <xmlCellPr id="1" xr6:uid="{E9F4548A-88FD-4228-B1AC-F443CE80F5E7}" uniqueName="service_name">
+      <xmlPr mapId="3" xpath="/config/service_name" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+  <singleXmlCell id="11" xr6:uid="{4F27C39F-80A2-40E3-B92A-2A2C3926DA73}" r="H4" connectionId="4">
+    <xmlCellPr id="1" xr6:uid="{4182ED88-B524-46EA-80D2-ADED6FCE9EBA}" uniqueName="application_plan_name">
+      <xmlPr mapId="3" xpath="/config/application_plan_name" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -559,10 +616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,15 +627,21 @@
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,97 +652,133 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{473E9FB4-E1F2-4861-9669-97FD451557F9}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{89A3E0BF-387A-4522-8A01-E62DF5E3B4C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/generate_config_xml.xlsx
+++ b/generate_config_xml.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workdata\ps\ps1\powershell_3scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C1F212-B804-4183-9AFD-6526B80CB9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F54BE-1508-4C38-B971-5F83C2F3C6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,13 +44,13 @@
     <webPr xml="1" sourceData="1" url="C:\workdata\ps\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
   <connection id="4" xr16:uid="{BC1DD249-1BA3-4977-9EDE-B0D2699A214C}" name="config3" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\workdata\ps\ps1\powershell_3scale\config.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\workdata\ps\ps1\powershell_3scale\dev.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>verb</t>
   </si>
@@ -92,15 +100,6 @@
     <t>zzzz</t>
   </si>
   <si>
-    <t>/mmm</t>
-  </si>
-  <si>
-    <t>/gfdg</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
     <t>path_service_list</t>
   </si>
   <si>
@@ -116,15 +115,6 @@
     <t>limit</t>
   </si>
   <si>
-    <t>https://xxxxx</t>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
-    <t>yyyy</t>
-  </si>
-  <si>
     <t>appplan-xxx-xxx</t>
   </si>
   <si>
@@ -144,6 +134,51 @@
   </si>
   <si>
     <t>/admin/api/application_plans/{application_plan_id}/metrics/{metric_id}/limits.xml</t>
+  </si>
+  <si>
+    <t>path_mapping_rule_delete</t>
+  </si>
+  <si>
+    <t>path_metric_delete</t>
+  </si>
+  <si>
+    <t>/admin/api/services/{service_id}/proxy/mapping_rules/{id}.xml</t>
+  </si>
+  <si>
+    <t>/admin/api/services/{service_id}/metrics/{id}.xml</t>
+  </si>
+  <si>
+    <t>https://ipdev-admin.ip.paas-test.ubrmb.com</t>
+  </si>
+  <si>
+    <t>ad21b55cf7239cea0ed9cf98b76b2df09c69770bca27b7ec52120ae545fb155a</t>
+  </si>
+  <si>
+    <t>Get Normal Order Detail</t>
+  </si>
+  <si>
+    <t>Get Refund Order Detail</t>
+  </si>
+  <si>
+    <t>Get Reschedule Order Detail</t>
+  </si>
+  <si>
+    <t>Cancel Unpaid Order</t>
+  </si>
+  <si>
+    <t>/qa/eco/orders/normal/{orderId}</t>
+  </si>
+  <si>
+    <t>/qa/eco/orders/refund/{orderId}</t>
+  </si>
+  <si>
+    <t>/qa/eco/orders/reschedule/{orderId}</t>
+  </si>
+  <si>
+    <t>/qa/eco/users/{userId}/orders/cancel/{orderId}</t>
+  </si>
+  <si>
+    <t>eco-qa</t>
   </si>
 </sst>
 </file>
@@ -207,9 +242,70 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F4AC1D6-0B04-4938-AF65-5A681CA521FE}" name="Table3" displayName="Table3" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="4">
-  <autoFilter ref="A1:C3" xr:uid="{D5B6DBD2-BE74-4858-9A33-28CE3155FDBA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F4AC1D6-0B04-4938-AF65-5A681CA521FE}" name="Table3" displayName="Table3" ref="A1:C5" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="A1:C5" xr:uid="{D5B6DBD2-BE74-4858-9A33-28CE3155FDBA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{87EC1880-F179-4FF0-BC77-32AFB0289C98}" uniqueName="verb" name="verb">
       <xmlColumnPr mapId="3" xpath="/config/rules/rule/verb" xmlDataType="string"/>
@@ -292,7 +388,7 @@
     <tableColumn id="2" xr3:uid="{B58DC894-6443-4E61-9740-4929627C73D7}" uniqueName="method" name="method">
       <xmlColumnPr mapId="3" xpath="/config/rules/rule/method" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8A31BC82-3A3A-4BEF-8692-B9FA532D49E9}" uniqueName="pattern" name="pattern">
+    <tableColumn id="3" xr3:uid="{8A31BC82-3A3A-4BEF-8692-B9FA532D49E9}" uniqueName="pattern" name="pattern" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/config/rules/rule/pattern" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -313,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2E022988-5777-4B0A-9E39-C035D8372F75}" name="Table13" displayName="Table13" ref="J1:K8" tableType="xml" totalsRowShown="0" connectionId="4">
-  <autoFilter ref="J1:K8" xr:uid="{A9FFF4C1-A25E-43AB-A34A-097369C86842}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2E022988-5777-4B0A-9E39-C035D8372F75}" name="Table13" displayName="Table13" ref="J1:K10" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="J1:K10" xr:uid="{A9FFF4C1-A25E-43AB-A34A-097369C86842}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B26DCEA9-6BDC-4DEF-9AE6-C1FB11271852}" uniqueName="name" name="name">
       <xmlColumnPr mapId="3" xpath="/config/paths/path/name" xmlDataType="string"/>
@@ -616,32 +712,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="71.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,30 +748,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -686,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
@@ -695,26 +791,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
@@ -723,55 +819,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
       <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>33</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{89A3E0BF-387A-4522-8A01-E62DF5E3B4C5}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{53889F6D-AA7C-4C7E-89DE-872B9E4744A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
